--- a/data/output/Pedido_Semana_08_09022026_fitos.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_fitos.xlsx
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>6.88</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>7.12</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>12.45</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>9.800000000000001</v>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>8.550000000000001</v>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>18.75</v>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>24.25</v>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C58" s="8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_fitos.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_fitos.xlsx
@@ -742,7 +742,7 @@
         <v>36</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" s="3" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" s="3" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" s="3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R19" s="3" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="3" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="3" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="3" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R34" s="3" t="n">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="3" t="n">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R41" s="3" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="3" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R43" s="3" t="n">
         <v>0</v>
